--- a/data/pca/factorExposure/factorExposure_2012-12-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-06.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0008061294635008343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002324724792574611</v>
+      </c>
+      <c r="C2">
+        <v>-0.03118930719194471</v>
+      </c>
+      <c r="D2">
+        <v>0.003515638232958459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0006961110008026438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006562598326457828</v>
+      </c>
+      <c r="C4">
+        <v>-0.08387611419672013</v>
+      </c>
+      <c r="D4">
+        <v>0.07738046181898699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002786189010403978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01410003163143938</v>
+      </c>
+      <c r="C6">
+        <v>-0.1142851138816</v>
+      </c>
+      <c r="D6">
+        <v>0.03194952843607578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001956244322197164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004621227438646622</v>
+      </c>
+      <c r="C7">
+        <v>-0.05827106002239159</v>
+      </c>
+      <c r="D7">
+        <v>0.03014139326632567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>6.376282092318729e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005511625246733647</v>
+      </c>
+      <c r="C8">
+        <v>-0.03743030095586423</v>
+      </c>
+      <c r="D8">
+        <v>0.04239252634555872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003845580483494653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004659106438641259</v>
+      </c>
+      <c r="C9">
+        <v>-0.07080387253469189</v>
+      </c>
+      <c r="D9">
+        <v>0.07245867381176803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001627149787227626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005424500513768712</v>
+      </c>
+      <c r="C10">
+        <v>-0.0582171409730383</v>
+      </c>
+      <c r="D10">
+        <v>-0.1963565362526831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.00270401603716173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005739707571537258</v>
+      </c>
+      <c r="C11">
+        <v>-0.07975395309416755</v>
+      </c>
+      <c r="D11">
+        <v>0.0592298392168566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-6.555141357639318e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.0040769788410854</v>
+      </c>
+      <c r="C12">
+        <v>-0.06411507403144144</v>
+      </c>
+      <c r="D12">
+        <v>0.04591635043826558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001109200508957558</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008948889962216594</v>
+      </c>
+      <c r="C13">
+        <v>-0.06841342830732002</v>
+      </c>
+      <c r="D13">
+        <v>0.05651451458979858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0009522564613792658</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.00137368416066105</v>
+      </c>
+      <c r="C14">
+        <v>-0.04484896312498329</v>
+      </c>
+      <c r="D14">
+        <v>0.004969831058247494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009039606053525988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.00595877255357307</v>
+      </c>
+      <c r="C15">
+        <v>-0.04178393545589792</v>
+      </c>
+      <c r="D15">
+        <v>0.02964118362572854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0009342843038234902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005066277738605351</v>
+      </c>
+      <c r="C16">
+        <v>-0.06508434190137093</v>
+      </c>
+      <c r="D16">
+        <v>0.04875351875337539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-9.756690556090684e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008666870413482105</v>
+      </c>
+      <c r="C20">
+        <v>-0.06535888316640712</v>
+      </c>
+      <c r="D20">
+        <v>0.04339742720974876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.00590441522504604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009819181111946495</v>
+      </c>
+      <c r="C21">
+        <v>-0.02080713273032455</v>
+      </c>
+      <c r="D21">
+        <v>0.03797204914399499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01690551417180678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006514009471222124</v>
+      </c>
+      <c r="C22">
+        <v>-0.09387519677946712</v>
+      </c>
+      <c r="D22">
+        <v>0.1134007809897336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01725030035915677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006339130335369344</v>
+      </c>
+      <c r="C23">
+        <v>-0.09469596843647192</v>
+      </c>
+      <c r="D23">
+        <v>0.1134142548974071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001586512495490746</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005497333504261957</v>
+      </c>
+      <c r="C24">
+        <v>-0.07634123172361421</v>
+      </c>
+      <c r="D24">
+        <v>0.06307889648755485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004463610658833565</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002963166960277716</v>
+      </c>
+      <c r="C25">
+        <v>-0.07839221284726239</v>
+      </c>
+      <c r="D25">
+        <v>0.0651501262170104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003806086757028706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003674680558301182</v>
+      </c>
+      <c r="C26">
+        <v>-0.04130124976198495</v>
+      </c>
+      <c r="D26">
+        <v>0.0226540513162835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005079491145955293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006849697530625062</v>
+      </c>
+      <c r="C28">
+        <v>-0.1071378616484551</v>
+      </c>
+      <c r="D28">
+        <v>-0.3188083844346087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001563813090999886</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003145901007385324</v>
+      </c>
+      <c r="C29">
+        <v>-0.05043674498201738</v>
+      </c>
+      <c r="D29">
+        <v>0.008380572346051884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003215539186158368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009681858000830617</v>
+      </c>
+      <c r="C30">
+        <v>-0.1417621840526053</v>
+      </c>
+      <c r="D30">
+        <v>0.1019213850206849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0005982209844402068</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006214391900188777</v>
+      </c>
+      <c r="C31">
+        <v>-0.04461858920006582</v>
+      </c>
+      <c r="D31">
+        <v>0.0286673364938786</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0003832712395428864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004165364622889618</v>
+      </c>
+      <c r="C32">
+        <v>-0.03907081968501665</v>
+      </c>
+      <c r="D32">
+        <v>0.02324819087795635</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.00189328763358479</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008625869343219031</v>
+      </c>
+      <c r="C33">
+        <v>-0.08641205156488997</v>
+      </c>
+      <c r="D33">
+        <v>0.06412651533045338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004524984230709407</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00409252987700757</v>
+      </c>
+      <c r="C34">
+        <v>-0.05808291369579267</v>
+      </c>
+      <c r="D34">
+        <v>0.05361340414705393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0008395893686559306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004961111925388597</v>
+      </c>
+      <c r="C35">
+        <v>-0.04040120813937482</v>
+      </c>
+      <c r="D35">
+        <v>0.01759036802863567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003529348908844817</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001008954672287566</v>
+      </c>
+      <c r="C36">
+        <v>-0.02497511362306272</v>
+      </c>
+      <c r="D36">
+        <v>0.02150371151844382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002245666737354322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00945043071129226</v>
+      </c>
+      <c r="C38">
+        <v>-0.0338968478466065</v>
+      </c>
+      <c r="D38">
+        <v>0.01583844867849613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01249032565617035</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007947911876273077</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156355912118557</v>
+      </c>
+      <c r="D39">
+        <v>0.07479831595073141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009740921270808469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002700048972082936</v>
+      </c>
+      <c r="C40">
+        <v>-0.09010364301935751</v>
+      </c>
+      <c r="D40">
+        <v>0.01292844853403706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0008609658192879721</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007298779635631887</v>
+      </c>
+      <c r="C41">
+        <v>-0.03825670742103502</v>
+      </c>
+      <c r="D41">
+        <v>0.03742929344271199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003270516934876271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003839461586287174</v>
+      </c>
+      <c r="C43">
+        <v>-0.05358380723697767</v>
+      </c>
+      <c r="D43">
+        <v>0.02472287674349036</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005364054956918098</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003135049712951894</v>
+      </c>
+      <c r="C44">
+        <v>-0.1093789191037766</v>
+      </c>
+      <c r="D44">
+        <v>0.06689441387757619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001147603803678088</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002017712659176417</v>
+      </c>
+      <c r="C46">
+        <v>-0.03320051290061307</v>
+      </c>
+      <c r="D46">
+        <v>0.03513386707768672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004289669320981189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002693176202134186</v>
+      </c>
+      <c r="C47">
+        <v>-0.03750387293767096</v>
+      </c>
+      <c r="D47">
+        <v>0.02208703132500218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004351827709461351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006795350800268906</v>
+      </c>
+      <c r="C48">
+        <v>-0.03127415058964281</v>
+      </c>
+      <c r="D48">
+        <v>0.03267536982670721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01151940646783371</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01587094018381373</v>
+      </c>
+      <c r="C49">
+        <v>-0.1850927125079509</v>
+      </c>
+      <c r="D49">
+        <v>0.01560507299204956</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001200809474899432</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003624874968098839</v>
+      </c>
+      <c r="C50">
+        <v>-0.04357069385740468</v>
+      </c>
+      <c r="D50">
+        <v>0.03651773503867904</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001086212512333038</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004691911656719256</v>
+      </c>
+      <c r="C51">
+        <v>-0.02597505788897212</v>
+      </c>
+      <c r="D51">
+        <v>0.02055600299191247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0005699548101249459</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02111786500175837</v>
+      </c>
+      <c r="C53">
+        <v>-0.1699050955729231</v>
+      </c>
+      <c r="D53">
+        <v>0.02671615228087043</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0014410433534097</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.009067438896582644</v>
+      </c>
+      <c r="C54">
+        <v>-0.05399020144963234</v>
+      </c>
+      <c r="D54">
+        <v>0.04454577223776311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003808232223522454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009707708328447891</v>
+      </c>
+      <c r="C55">
+        <v>-0.1096636165942229</v>
+      </c>
+      <c r="D55">
+        <v>0.03828085816760936</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001706228654603314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02035123785073113</v>
+      </c>
+      <c r="C56">
+        <v>-0.1746032709313368</v>
+      </c>
+      <c r="D56">
+        <v>0.01888117854163776</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007993773573174819</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01913405759648087</v>
+      </c>
+      <c r="C58">
+        <v>-0.1098759711691129</v>
+      </c>
+      <c r="D58">
+        <v>0.06049848244570413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007719810410972333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009846630555405921</v>
+      </c>
+      <c r="C59">
+        <v>-0.1651877304241854</v>
+      </c>
+      <c r="D59">
+        <v>-0.3284913821876486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004218160131528226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02468312952156308</v>
+      </c>
+      <c r="C60">
+        <v>-0.2227501877202251</v>
+      </c>
+      <c r="D60">
+        <v>0.03417038084751525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01448493346075306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001750345323557089</v>
+      </c>
+      <c r="C61">
+        <v>-0.09456689453798801</v>
+      </c>
+      <c r="D61">
+        <v>0.0550521857307761</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1626542384147289</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1465660518102608</v>
+      </c>
+      <c r="C62">
+        <v>-0.09283614460430015</v>
+      </c>
+      <c r="D62">
+        <v>0.03850624188503556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0005864807663948114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006304979139152384</v>
+      </c>
+      <c r="C63">
+        <v>-0.05487267416556426</v>
+      </c>
+      <c r="D63">
+        <v>0.02675689348906294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0008245842418356881</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01485698779728368</v>
+      </c>
+      <c r="C64">
+        <v>-0.1051091832563306</v>
+      </c>
+      <c r="D64">
+        <v>0.05695334757032522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002247454777215144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01783861068539788</v>
+      </c>
+      <c r="C65">
+        <v>-0.1246652304856303</v>
+      </c>
+      <c r="D65">
+        <v>0.02431943525909228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007737585917757977</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01311307234699455</v>
+      </c>
+      <c r="C66">
+        <v>-0.1597000892627201</v>
+      </c>
+      <c r="D66">
+        <v>0.1107328543213295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003703751853288459</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01570544856292741</v>
+      </c>
+      <c r="C67">
+        <v>-0.06511640580057916</v>
+      </c>
+      <c r="D67">
+        <v>0.02642727336543363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006230533307020405</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007835215215192932</v>
+      </c>
+      <c r="C68">
+        <v>-0.08688452282142411</v>
+      </c>
+      <c r="D68">
+        <v>-0.2610513795289254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002027513250722777</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006078149735636009</v>
+      </c>
+      <c r="C69">
+        <v>-0.05047202159100516</v>
+      </c>
+      <c r="D69">
+        <v>0.03751992710458533</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-5.734219293711172e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001815466839896236</v>
+      </c>
+      <c r="C70">
+        <v>-0.002714363304746666</v>
+      </c>
+      <c r="D70">
+        <v>0.0003372195581292867</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002271405785440702</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.00584655970634933</v>
+      </c>
+      <c r="C71">
+        <v>-0.0945312602140273</v>
+      </c>
+      <c r="D71">
+        <v>-0.3054699851512308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003874035403957698</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01611712465886193</v>
+      </c>
+      <c r="C72">
+        <v>-0.1532364246168004</v>
+      </c>
+      <c r="D72">
+        <v>0.01657476626146937</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01197237260504226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03116875383294658</v>
+      </c>
+      <c r="C73">
+        <v>-0.2794387771562848</v>
+      </c>
+      <c r="D73">
+        <v>0.05708523861481519</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005623854974755056</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002011891875620056</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046553742266641</v>
+      </c>
+      <c r="D74">
+        <v>0.03550899998988151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.003083852283650991</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01119854674474672</v>
+      </c>
+      <c r="C75">
+        <v>-0.1247847743254131</v>
+      </c>
+      <c r="D75">
+        <v>0.02513575342897526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.007766737563638413</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02208477635728162</v>
+      </c>
+      <c r="C76">
+        <v>-0.1490994973246532</v>
+      </c>
+      <c r="D76">
+        <v>0.05745110717312713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003048859772168181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02274922565897098</v>
+      </c>
+      <c r="C77">
+        <v>-0.1207447134708493</v>
+      </c>
+      <c r="D77">
+        <v>0.08473555126136899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.00119662144833251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01500857235614871</v>
+      </c>
+      <c r="C78">
+        <v>-0.09605031565141402</v>
+      </c>
+      <c r="D78">
+        <v>0.07174690809526049</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02318447936511657</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03814474089225786</v>
+      </c>
+      <c r="C79">
+        <v>-0.1574651858223874</v>
+      </c>
+      <c r="D79">
+        <v>0.03140352628748935</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006233497461521375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01023833306046235</v>
+      </c>
+      <c r="C80">
+        <v>-0.03984836741989783</v>
+      </c>
+      <c r="D80">
+        <v>0.0286682145651531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0004666056964286211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01595123363549204</v>
+      </c>
+      <c r="C81">
+        <v>-0.127934922438447</v>
+      </c>
+      <c r="D81">
+        <v>0.04002230872022584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.00408803099774663</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02015685361579979</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419925580417583</v>
+      </c>
+      <c r="D82">
+        <v>0.03489358464522357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008766478216691048</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01011205439756943</v>
+      </c>
+      <c r="C83">
+        <v>-0.05544799993894198</v>
+      </c>
+      <c r="D83">
+        <v>0.05401464204166202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01187687467078131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01138719123950337</v>
+      </c>
+      <c r="C84">
+        <v>-0.0367894366767646</v>
+      </c>
+      <c r="D84">
+        <v>-0.005384123470527399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01338639835106945</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02905224527469606</v>
+      </c>
+      <c r="C85">
+        <v>-0.1256457357783179</v>
+      </c>
+      <c r="D85">
+        <v>0.04366688316296036</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001810653088183103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005356837056576132</v>
+      </c>
+      <c r="C86">
+        <v>-0.04938302488975368</v>
+      </c>
+      <c r="D86">
+        <v>0.02953098591533202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003589963168464994</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01052239055488021</v>
+      </c>
+      <c r="C87">
+        <v>-0.1281270495765716</v>
+      </c>
+      <c r="D87">
+        <v>0.07312493181471789</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.0114701396719809</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002892367636993535</v>
+      </c>
+      <c r="C88">
+        <v>-0.06501410063211817</v>
+      </c>
+      <c r="D88">
+        <v>0.01847021087457029</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01397838604614255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001470041209866366</v>
+      </c>
+      <c r="C89">
+        <v>-0.1464955413832218</v>
+      </c>
+      <c r="D89">
+        <v>-0.332120681866871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.001473540517894096</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006771900354327092</v>
+      </c>
+      <c r="C90">
+        <v>-0.1209026357418266</v>
+      </c>
+      <c r="D90">
+        <v>-0.3185033465725305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0003719710850540064</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01046514161968217</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002665185708778</v>
+      </c>
+      <c r="D91">
+        <v>0.0212071599765631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.00906761685475686</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001090721515709102</v>
+      </c>
+      <c r="C92">
+        <v>-0.1360776854833224</v>
+      </c>
+      <c r="D92">
+        <v>-0.3255678875840067</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0008880901239920287</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00504792020910568</v>
+      </c>
+      <c r="C93">
+        <v>-0.1057027268822721</v>
+      </c>
+      <c r="D93">
+        <v>-0.3019636178040345</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.00264786421463865</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02255285656031566</v>
+      </c>
+      <c r="C94">
+        <v>-0.1469658073089047</v>
+      </c>
+      <c r="D94">
+        <v>0.05347620698116525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.005849624440163411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01632252973076896</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250476336836316</v>
+      </c>
+      <c r="D95">
+        <v>0.0578479516104136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0001710333354790844</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03677949549600655</v>
+      </c>
+      <c r="C97">
+        <v>-0.2124769382249865</v>
+      </c>
+      <c r="D97">
+        <v>-0.006043762168606317</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004022075626794485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03708420609914957</v>
+      </c>
+      <c r="C98">
+        <v>-0.2495090060111581</v>
+      </c>
+      <c r="D98">
+        <v>0.04945556331207968</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9849284566527173</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818121889676379</v>
+      </c>
+      <c r="C99">
+        <v>0.1177439701742961</v>
+      </c>
+      <c r="D99">
+        <v>-0.02652110800312719</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001460238317724408</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003179849392720399</v>
+      </c>
+      <c r="C101">
+        <v>-0.0505541235714194</v>
+      </c>
+      <c r="D101">
+        <v>0.008739664592694697</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
